--- a/Scripts_inesdattatreya/data_output/LCA_model_fit_table.xlsx
+++ b/Scripts_inesdattatreya/data_output/LCA_model_fit_table.xlsx
@@ -1,21 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/idattatreya_tudelft_nl/Documents/BEP/BranchInes/Scripts_inesdattatreya/data_output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_AD7AFDCE8F79A8D366075C52F3E9527617B6F9FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E2AC303-2493-4FFF-9B94-289EBC5D7BF9}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>LogLikelihood</t>
+  </si>
+  <si>
+    <t>AIC</t>
+  </si>
+  <si>
+    <t>BIC</t>
+  </si>
+  <si>
+    <t>Entropy</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -48,28 +74,227 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +332,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +366,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +401,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,42 +577,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="12.76171875" customWidth="1"/>
+    <col min="2" max="2" width="11.703125" customWidth="1"/>
+    <col min="3" max="3" width="11.05859375" customWidth="1"/>
+    <col min="4" max="4" width="10.05859375" customWidth="1"/>
+    <col min="5" max="5" width="12.5859375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Classes</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>LogLikelihood</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AIC</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>BIC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Entropy</t>
-        </is>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A2" s="2">
         <v>2</v>
       </c>
       <c r="B2">
@@ -398,61 +624,76 @@
         <v>4042.419232253983</v>
       </c>
       <c r="E2">
-        <v>0.814326457490635</v>
+        <v>0.81432645749063504</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A3" s="2">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>-1762.80020480791</v>
+        <v>-1762.8002048079099</v>
       </c>
       <c r="C3">
-        <v>3763.60040961582</v>
+        <v>3763.6004096158199</v>
       </c>
       <c r="D3">
-        <v>4123.442191596527</v>
+        <v>4123.4421915965268</v>
       </c>
       <c r="E3">
-        <v>0.9012874465767552</v>
+        <v>0.90128744657675519</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A4" s="2">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-1768.552084178552</v>
+        <v>-1768.5520841785519</v>
       </c>
       <c r="C4">
-        <v>3855.104168357104</v>
+        <v>3855.1041683571038</v>
       </c>
       <c r="D4">
-        <v>4335.901171171662</v>
+        <v>4335.9011711716621</v>
       </c>
       <c r="E4">
-        <v>0.9077187989770428</v>
+        <v>0.90771879897704277</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5" s="2">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>-1694.360172026083</v>
+        <v>-1694.3601720260831</v>
       </c>
       <c r="C5">
-        <v>3786.720344052166</v>
+        <v>3786.7203440521662</v>
       </c>
       <c r="D5">
-        <v>4388.472567700575</v>
+        <v>4388.4725677005754</v>
       </c>
       <c r="E5">
-        <v>0.9258282785625889</v>
+        <v>0.92582827856258887</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B5">
+    <cfRule type="top10" dxfId="8" priority="5" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C5">
+    <cfRule type="top10" dxfId="7" priority="4" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="top10" dxfId="6" priority="3" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="top10" dxfId="5" priority="2" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="10"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>